--- a/Data/metadaten_grafiken_kantonale_abstimmungen.xlsx
+++ b/Data/metadaten_grafiken_kantonale_abstimmungen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw\OneDrive\SDA_eidgenoessische_abstimmungen\20250209_LENA_Abstimmungen\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BD90E-E873-40F6-9D2E-B4C077BD51AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F41D7C-573E-4BA6-BCC5-5D75A4ACDBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="255" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,13 +76,6 @@
     <t>https://datawrapper.dwcdn.net/UCcYl/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="LU: Verfassungsinitiative «Ja zum Stimmrechtsalter 16!»" aria-label="Karte" id="datawrapper-chart-UCcYl" src="https://datawrapper.dwcdn.net/UCcYl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px" id="datawrapper-vis-UCcYl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/UCcYl/embed.js" charset="utf-8" data-target="#datawrapper-vis-UCcYl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/UCcYl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>FR_SIC</t>
   </si>
   <si>
@@ -95,13 +88,6 @@
     <t>https://datawrapper.dwcdn.net/jHvrD/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Kredit für den Bau eines interinstitutionellen kantonalen Lagers für Kulturgüter (SIC)" aria-label="Karte" id="datawrapper-chart-jHvrD" src="https://datawrapper.dwcdn.net/jHvrD/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:494px" id="datawrapper-vis-jHvrD"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jHvrD/embed.js" charset="utf-8" data-target="#datawrapper-vis-jHvrD"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jHvrD/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>FR: Crédit pour la construction du centre de stockage interinstitutionnel cantonal (SIC)</t>
   </si>
   <si>
@@ -111,13 +97,6 @@
     <t>https://datawrapper.dwcdn.net/fYquK/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Crédit pour la construction du centre de stockage interinstitutionnel cantonal (SIC)" aria-label="Carte" id="datawrapper-chart-fYquK" src="https://datawrapper.dwcdn.net/fYquK/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:495px" id="datawrapper-vis-fYquK"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/fYquK/embed.js" charset="utf-8" data-target="#datawrapper-vis-fYquK"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/fYquK/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Kantonale Vorlage Overview</t>
   </si>
   <si>
@@ -133,13 +112,6 @@
     <t>https://datawrapper.dwcdn.net/O9H78/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Volksinitiative «Berner Solar-Initiative»" aria-label="Karte" id="datawrapper-chart-O9H78" src="https://datawrapper.dwcdn.net/O9H78/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="687" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:687px" id="datawrapper-vis-O9H78"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/O9H78/embed.js" charset="utf-8" data-target="#datawrapper-vis-O9H78"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/O9H78/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Initiative populaire «Initiative solaire bernoise»</t>
   </si>
   <si>
@@ -149,13 +121,6 @@
     <t>https://datawrapper.dwcdn.net/gLbAl/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="Initiative populaire «Initiative solaire bernoise»" aria-label="Carte" id="datawrapper-chart-gLbAl" src="https://datawrapper.dwcdn.net/gLbAl/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="617" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:617px" id="datawrapper-vis-gLbAl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/gLbAl/embed.js" charset="utf-8" data-target="#datawrapper-vis-gLbAl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/gLbAl/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BE</t>
   </si>
   <si>
@@ -168,13 +133,6 @@
     <t>https://datawrapper.dwcdn.net/Uj1oM/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BE: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-Uj1oM" src="https://datawrapper.dwcdn.net/Uj1oM/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-Uj1oM"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Uj1oM/embed.js" charset="utf-8" data-target="#datawrapper-vis-Uj1oM"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Uj1oM/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BE: Votations cantonales du 9 février 2025</t>
   </si>
   <si>
@@ -184,13 +142,6 @@
     <t>https://datawrapper.dwcdn.net/4gL2t/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BE: Votations cantonales du 9 février 2025" aria-label="Barres empilées" id="datawrapper-chart-4gL2t" src="https://datawrapper.dwcdn.net/4gL2t/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:452px" id="datawrapper-vis-4gL2t"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4gL2t/embed.js" charset="utf-8" data-target="#datawrapper-vis-4gL2t"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4gL2t/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>LU: Kantonale Abstimmungen vom 9. Februar 2025</t>
   </si>
   <si>
@@ -200,13 +151,6 @@
     <t>https://datawrapper.dwcdn.net/2xanL/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="LU: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-2xanL" src="https://datawrapper.dwcdn.net/2xanL/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-2xanL"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/2xanL/embed.js" charset="utf-8" data-target="#datawrapper-vis-2xanL"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/2xanL/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -219,13 +163,6 @@
     <t>https://datawrapper.dwcdn.net/TaREr/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-TaREr" src="https://datawrapper.dwcdn.net/TaREr/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-TaREr"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TaREr/embed.js" charset="utf-8" data-target="#datawrapper-vis-TaREr"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TaREr/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>FR: Votations cantonales du 9 février 2025</t>
   </si>
   <si>
@@ -235,13 +172,6 @@
     <t>https://datawrapper.dwcdn.net/qJ6Rx/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="FR: Votations cantonales du 9 février 2025" aria-label="Barres empilées" id="datawrapper-chart-qJ6Rx" src="https://datawrapper.dwcdn.net/qJ6Rx/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:452px" id="datawrapper-vis-qJ6Rx"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qJ6Rx/embed.js" charset="utf-8" data-target="#datawrapper-vis-qJ6Rx"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qJ6Rx/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>SO</t>
   </si>
   <si>
@@ -254,13 +184,6 @@
     <t>https://datawrapper.dwcdn.net/c7XTP/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="SO: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-c7XTP" src="https://datawrapper.dwcdn.net/c7XTP/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-c7XTP"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/c7XTP/embed.js" charset="utf-8" data-target="#datawrapper-vis-c7XTP"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/c7XTP/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>BL</t>
   </si>
   <si>
@@ -273,13 +196,6 @@
     <t>https://datawrapper.dwcdn.net/7HpXh/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="BL: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-7HpXh" src="https://datawrapper.dwcdn.net/7HpXh/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-7HpXh"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7HpXh/embed.js" charset="utf-8" data-target="#datawrapper-vis-7HpXh"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7HpXh/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>SH: Kantonale Abstimmungen vom 9. Februar 2025</t>
   </si>
   <si>
@@ -289,11 +205,95 @@
     <t>https://datawrapper.dwcdn.net/gKOef/1/</t>
   </si>
   <si>
-    <t>&lt;iframe title="SH: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-gKOef" src="https://datawrapper.dwcdn.net/gKOef/1/" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
-&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div style="min-height:469px" id="datawrapper-vis-gKOef"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/gKOef/embed.js" charset="utf-8" data-target="#datawrapper-vis-gKOef"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/gKOef/full.png" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+    <t>&lt;div style="min-height:494px" id="datawrapper-vis-UCcYl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/UCcYl/embed.js" charset="utf-8" data-target="#datawrapper-vis-UCcYl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/UCcYl/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:494px" id="datawrapper-vis-jHvrD"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/jHvrD/embed.js" charset="utf-8" data-target="#datawrapper-vis-jHvrD"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/jHvrD/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:495px" id="datawrapper-vis-fYquK"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/fYquK/embed.js" charset="utf-8" data-target="#datawrapper-vis-fYquK"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/fYquK/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:687px" id="datawrapper-vis-O9H78"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/O9H78/embed.js" charset="utf-8" data-target="#datawrapper-vis-O9H78"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/O9H78/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:617px" id="datawrapper-vis-gLbAl"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/gLbAl/embed.js" charset="utf-8" data-target="#datawrapper-vis-gLbAl"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/gLbAl/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-Uj1oM"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/Uj1oM/embed.js" charset="utf-8" data-target="#datawrapper-vis-Uj1oM"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/Uj1oM/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:452px" id="datawrapper-vis-4gL2t"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/4gL2t/embed.js" charset="utf-8" data-target="#datawrapper-vis-4gL2t"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/4gL2t/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-2xanL"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/2xanL/embed.js" charset="utf-8" data-target="#datawrapper-vis-2xanL"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/2xanL/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-TaREr"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/TaREr/embed.js" charset="utf-8" data-target="#datawrapper-vis-TaREr"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/TaREr/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:452px" id="datawrapper-vis-qJ6Rx"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/qJ6Rx/embed.js" charset="utf-8" data-target="#datawrapper-vis-qJ6Rx"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/qJ6Rx/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-c7XTP"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/c7XTP/embed.js" charset="utf-8" data-target="#datawrapper-vis-c7XTP"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/c7XTP/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-7HpXh"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/7HpXh/embed.js" charset="utf-8" data-target="#datawrapper-vis-7HpXh"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/7HpXh/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="min-height:469px" id="datawrapper-vis-gKOef"&gt;&lt;script type="text/javascript" defer src="https://datawrapper.dwcdn.net/gKOef/embed.js" charset="utf-8" data-target="#datawrapper-vis-gKOef"&gt;&lt;/script&gt;&lt;noscript&gt;&lt;img src="https://datawrapper.dwcdn.net/gKOef/full.png?unq=keystone-sda" alt="" /&gt;&lt;/noscript&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="LU: Verfassungsinitiative «Ja zum Stimmrechtsalter 16!»" aria-label="Karte" id="datawrapper-chart-UCcYl" src="https://datawrapper.dwcdn.net/UCcYl/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Kredit für den Bau eines interinstitutionellen kantonalen Lagers für Kulturgüter (SIC)" aria-label="Karte" id="datawrapper-chart-jHvrD" src="https://datawrapper.dwcdn.net/jHvrD/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="494" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Crédit pour la construction du centre de stockage interinstitutionnel cantonal (SIC)" aria-label="Carte" id="datawrapper-chart-fYquK" src="https://datawrapper.dwcdn.net/fYquK/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="495" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Volksinitiative «Berner Solar-Initiative»" aria-label="Karte" id="datawrapper-chart-O9H78" src="https://datawrapper.dwcdn.net/O9H78/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="687" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="Initiative populaire «Initiative solaire bernoise»" aria-label="Carte" id="datawrapper-chart-gLbAl" src="https://datawrapper.dwcdn.net/gLbAl/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="617" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-Uj1oM" src="https://datawrapper.dwcdn.net/Uj1oM/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BE: Votations cantonales du 9 février 2025" aria-label="Barres empilées" id="datawrapper-chart-4gL2t" src="https://datawrapper.dwcdn.net/4gL2t/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="LU: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-2xanL" src="https://datawrapper.dwcdn.net/2xanL/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-TaREr" src="https://datawrapper.dwcdn.net/TaREr/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="FR: Votations cantonales du 9 février 2025" aria-label="Barres empilées" id="datawrapper-chart-qJ6Rx" src="https://datawrapper.dwcdn.net/qJ6Rx/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="452" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SO: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-c7XTP" src="https://datawrapper.dwcdn.net/c7XTP/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="BL: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-7HpXh" src="https://datawrapper.dwcdn.net/7HpXh/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe title="SH: Kantonale Abstimmungen vom 9. Februar 2025" aria-label="Balken (gestapelt)" id="datawrapper-chart-gKOef" src="https://datawrapper.dwcdn.net/gKOef/1/?unq=keystone-sda" scrolling="no" frameborder="0" style="width: 0; min-width: 100% !important; border: none;" height="469" data-external="1"&gt;&lt;/iframe&gt;&lt;script type="text/javascript"&gt;!function(){"use strict";window.addEventListener("message",(function(a){if(void 0!==a.data["datawrapper-height"]){var e=document.querySelectorAll("iframe");for(var t in a.data["datawrapper-height"])for(var r=0;r&lt;e.length;r++)if(e[r].contentWindow===a.source){var i=a.data["datawrapper-height"][t]+"px";e[r].style.height=i}}}))}();
+&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -343,9 +343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -662,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +676,7 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="42" customWidth="1"/>
+    <col min="7" max="8" width="42" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,10 +698,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -722,11 +724,11 @@
       <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -734,25 +736,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,77 +762,77 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,25 +840,25 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,25 +866,25 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,22 +895,22 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
+        <v>42</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -942,25 +944,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -968,25 +970,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" t="s">
-        <v>75</v>
+        <v>53</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -994,25 +996,25 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1023,22 +1025,22 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>86</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
